--- a/src/main/resources/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/src/main/resources/excel/finished/能介/二空压站启停次数表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28245" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
-    <sheet name="_acsRepor_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -133,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,7 +148,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +246,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,11 +267,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,105 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,19 +300,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,163 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,39 +499,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +520,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -577,6 +542,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,16 +576,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1109,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:X7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1310,91 +1310,91 @@
         <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f>IF(_acsRepor_day_shift!A2="","",_acsRepor_day_shift!A2)</f>
+        <f>IF(_acsReport_day_shift!A2="","",_acsReport_day_shift!A2)</f>
         <v/>
       </c>
       <c r="D5" t="str">
-        <f>IF(_acsRepor_day_shift!B2="","",_acsRepor_day_shift!B2)</f>
+        <f>IF(_acsReport_day_shift!B2="","",_acsReport_day_shift!B2)</f>
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>IF(_acsRepor_day_shift!C2="","",_acsRepor_day_shift!C2)</f>
+        <f>IF(_acsReport_day_shift!C2="","",_acsReport_day_shift!C2)</f>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(_acsRepor_day_shift!D2="","",_acsRepor_day_shift!D2)</f>
+        <f>IF(_acsReport_day_shift!D2="","",_acsReport_day_shift!D2)</f>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>IF(_acsRepor_day_shift!E2="","",_acsRepor_day_shift!E2)</f>
+        <f>IF(_acsReport_day_shift!E2="","",_acsReport_day_shift!E2)</f>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF(_acsRepor_day_shift!F2="","",_acsRepor_day_shift!F2)</f>
+        <f>IF(_acsReport_day_shift!F2="","",_acsReport_day_shift!F2)</f>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f>IF(_acsRepor_day_shift!G2="","",_acsRepor_day_shift!G2)</f>
+        <f>IF(_acsReport_day_shift!G2="","",_acsReport_day_shift!G2)</f>
         <v/>
       </c>
       <c r="J5" t="str">
-        <f>IF(_acsRepor_day_shift!H2="","",_acsRepor_day_shift!H2)</f>
+        <f>IF(_acsReport_day_shift!H2="","",_acsReport_day_shift!H2)</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(_acsRepor_day_shift!I2="","",_acsRepor_day_shift!I2)</f>
+        <f>IF(_acsReport_day_shift!I2="","",_acsReport_day_shift!I2)</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(_acsRepor_day_shift!J2="","",_acsRepor_day_shift!J2)</f>
+        <f>IF(_acsReport_day_shift!J2="","",_acsReport_day_shift!J2)</f>
         <v/>
       </c>
       <c r="M5" t="str">
-        <f>IF(_acsRepor_day_shift!K2="","",_acsRepor_day_shift!K2)</f>
+        <f>IF(_acsReport_day_shift!K2="","",_acsReport_day_shift!K2)</f>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f>IF(_acsRepor_day_shift!L2="","",_acsRepor_day_shift!L2)</f>
+        <f>IF(_acsReport_day_shift!L2="","",_acsReport_day_shift!L2)</f>
         <v/>
       </c>
       <c r="O5" t="str">
-        <f>IF(_acsRepor_day_shift!M2="","",_acsRepor_day_shift!M2)</f>
+        <f>IF(_acsReport_day_shift!M2="","",_acsReport_day_shift!M2)</f>
         <v/>
       </c>
       <c r="P5" t="str">
-        <f>IF(_acsRepor_day_shift!N2="","",_acsRepor_day_shift!N2)</f>
+        <f>IF(_acsReport_day_shift!N2="","",_acsReport_day_shift!N2)</f>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f>IF(_acsRepor_day_shift!O2="","",_acsRepor_day_shift!O2)</f>
+        <f>IF(_acsReport_day_shift!O2="","",_acsReport_day_shift!O2)</f>
         <v/>
       </c>
       <c r="R5" t="str">
-        <f>IF(_acsRepor_day_shift!P2="","",_acsRepor_day_shift!P2)</f>
+        <f>IF(_acsReport_day_shift!P2="","",_acsReport_day_shift!P2)</f>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f>IF(_acsRepor_day_shift!Q2="","",_acsRepor_day_shift!Q2)</f>
+        <f>IF(_acsReport_day_shift!Q2="","",_acsReport_day_shift!Q2)</f>
         <v/>
       </c>
       <c r="T5" t="str">
-        <f>IF(_acsRepor_day_shift!R2="","",_acsRepor_day_shift!R2)</f>
+        <f>IF(_acsReport_day_shift!R2="","",_acsReport_day_shift!R2)</f>
         <v/>
       </c>
       <c r="U5" t="str">
-        <f>IF(_acsRepor_day_shift!S2="","",_acsRepor_day_shift!S2)</f>
+        <f>IF(_acsReport_day_shift!S2="","",_acsReport_day_shift!S2)</f>
         <v/>
       </c>
       <c r="V5" t="str">
-        <f>IF(_acsRepor_day_shift!T2="","",_acsRepor_day_shift!T2)</f>
+        <f>IF(_acsReport_day_shift!T2="","",_acsReport_day_shift!T2)</f>
         <v/>
       </c>
       <c r="W5" t="str">
-        <f>IF(_acsRepor_day_shift!U2="","",_acsRepor_day_shift!U2)</f>
+        <f>IF(_acsReport_day_shift!U2="","",_acsReport_day_shift!U2)</f>
         <v/>
       </c>
       <c r="X5" t="str">
-        <f>IF(_acsRepor_day_shift!V2="","",_acsRepor_day_shift!V2)</f>
+        <f>IF(_acsReport_day_shift!V2="","",_acsReport_day_shift!V2)</f>
         <v/>
       </c>
     </row>
@@ -1404,91 +1404,91 @@
         <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(_acsRepor_day_shift!A3="","",_acsRepor_day_shift!A3)</f>
+        <f>IF(_acsReport_day_shift!A3="","",_acsReport_day_shift!A3)</f>
         <v/>
       </c>
       <c r="D6" t="str">
-        <f>IF(_acsRepor_day_shift!B3="","",_acsRepor_day_shift!B3)</f>
+        <f>IF(_acsReport_day_shift!B3="","",_acsReport_day_shift!B3)</f>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(_acsRepor_day_shift!C3="","",_acsRepor_day_shift!C3)</f>
+        <f>IF(_acsReport_day_shift!C3="","",_acsReport_day_shift!C3)</f>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(_acsRepor_day_shift!D3="","",_acsRepor_day_shift!D3)</f>
+        <f>IF(_acsReport_day_shift!D3="","",_acsReport_day_shift!D3)</f>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>IF(_acsRepor_day_shift!E3="","",_acsRepor_day_shift!E3)</f>
+        <f>IF(_acsReport_day_shift!E3="","",_acsReport_day_shift!E3)</f>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f>IF(_acsRepor_day_shift!F3="","",_acsRepor_day_shift!F3)</f>
+        <f>IF(_acsReport_day_shift!F3="","",_acsReport_day_shift!F3)</f>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f>IF(_acsRepor_day_shift!G3="","",_acsRepor_day_shift!G3)</f>
+        <f>IF(_acsReport_day_shift!G3="","",_acsReport_day_shift!G3)</f>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF(_acsRepor_day_shift!H3="","",_acsRepor_day_shift!H3)</f>
+        <f>IF(_acsReport_day_shift!H3="","",_acsReport_day_shift!H3)</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(_acsRepor_day_shift!I3="","",_acsRepor_day_shift!I3)</f>
+        <f>IF(_acsReport_day_shift!I3="","",_acsReport_day_shift!I3)</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF(_acsRepor_day_shift!J3="","",_acsRepor_day_shift!J3)</f>
+        <f>IF(_acsReport_day_shift!J3="","",_acsReport_day_shift!J3)</f>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f>IF(_acsRepor_day_shift!K3="","",_acsRepor_day_shift!K3)</f>
+        <f>IF(_acsReport_day_shift!K3="","",_acsReport_day_shift!K3)</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f>IF(_acsRepor_day_shift!L3="","",_acsRepor_day_shift!L3)</f>
+        <f>IF(_acsReport_day_shift!L3="","",_acsReport_day_shift!L3)</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f>IF(_acsRepor_day_shift!M3="","",_acsRepor_day_shift!M3)</f>
+        <f>IF(_acsReport_day_shift!M3="","",_acsReport_day_shift!M3)</f>
         <v/>
       </c>
       <c r="P6" t="str">
-        <f>IF(_acsRepor_day_shift!N3="","",_acsRepor_day_shift!N3)</f>
+        <f>IF(_acsReport_day_shift!N3="","",_acsReport_day_shift!N3)</f>
         <v/>
       </c>
       <c r="Q6" t="str">
-        <f>IF(_acsRepor_day_shift!O3="","",_acsRepor_day_shift!O3)</f>
+        <f>IF(_acsReport_day_shift!O3="","",_acsReport_day_shift!O3)</f>
         <v/>
       </c>
       <c r="R6" t="str">
-        <f>IF(_acsRepor_day_shift!P3="","",_acsRepor_day_shift!P3)</f>
+        <f>IF(_acsReport_day_shift!P3="","",_acsReport_day_shift!P3)</f>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f>IF(_acsRepor_day_shift!Q3="","",_acsRepor_day_shift!Q3)</f>
+        <f>IF(_acsReport_day_shift!Q3="","",_acsReport_day_shift!Q3)</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f>IF(_acsRepor_day_shift!R3="","",_acsRepor_day_shift!R3)</f>
+        <f>IF(_acsReport_day_shift!R3="","",_acsReport_day_shift!R3)</f>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f>IF(_acsRepor_day_shift!S3="","",_acsRepor_day_shift!S3)</f>
+        <f>IF(_acsReport_day_shift!S3="","",_acsReport_day_shift!S3)</f>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f>IF(_acsRepor_day_shift!T3="","",_acsRepor_day_shift!T3)</f>
+        <f>IF(_acsReport_day_shift!T3="","",_acsReport_day_shift!T3)</f>
         <v/>
       </c>
       <c r="W6" t="str">
-        <f>IF(_acsRepor_day_shift!U3="","",_acsRepor_day_shift!U3)</f>
+        <f>IF(_acsReport_day_shift!U3="","",_acsReport_day_shift!U3)</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f>IF(_acsRepor_day_shift!V3="","",_acsRepor_day_shift!V3)</f>
+        <f>IF(_acsReport_day_shift!V3="","",_acsReport_day_shift!V3)</f>
         <v/>
       </c>
     </row>
@@ -1498,91 +1498,91 @@
         <v>14</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(_acsRepor_day_shift!A4="","",_acsRepor_day_shift!A4)</f>
+        <f>IF(_acsReport_day_shift!A4="","",_acsReport_day_shift!A4)</f>
         <v/>
       </c>
       <c r="D7" t="str">
-        <f>IF(_acsRepor_day_shift!B4="","",_acsRepor_day_shift!B4)</f>
+        <f>IF(_acsReport_day_shift!B4="","",_acsReport_day_shift!B4)</f>
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>IF(_acsRepor_day_shift!C4="","",_acsRepor_day_shift!C4)</f>
+        <f>IF(_acsReport_day_shift!C4="","",_acsReport_day_shift!C4)</f>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(_acsRepor_day_shift!D4="","",_acsRepor_day_shift!D4)</f>
+        <f>IF(_acsReport_day_shift!D4="","",_acsReport_day_shift!D4)</f>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>IF(_acsRepor_day_shift!E4="","",_acsRepor_day_shift!E4)</f>
+        <f>IF(_acsReport_day_shift!E4="","",_acsReport_day_shift!E4)</f>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>IF(_acsRepor_day_shift!F4="","",_acsRepor_day_shift!F4)</f>
+        <f>IF(_acsReport_day_shift!F4="","",_acsReport_day_shift!F4)</f>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f>IF(_acsRepor_day_shift!G4="","",_acsRepor_day_shift!G4)</f>
+        <f>IF(_acsReport_day_shift!G4="","",_acsReport_day_shift!G4)</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IF(_acsRepor_day_shift!H4="","",_acsRepor_day_shift!H4)</f>
+        <f>IF(_acsReport_day_shift!H4="","",_acsReport_day_shift!H4)</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(_acsRepor_day_shift!I4="","",_acsRepor_day_shift!I4)</f>
+        <f>IF(_acsReport_day_shift!I4="","",_acsReport_day_shift!I4)</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(_acsRepor_day_shift!J4="","",_acsRepor_day_shift!J4)</f>
+        <f>IF(_acsReport_day_shift!J4="","",_acsReport_day_shift!J4)</f>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IF(_acsRepor_day_shift!K4="","",_acsRepor_day_shift!K4)</f>
+        <f>IF(_acsReport_day_shift!K4="","",_acsReport_day_shift!K4)</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f>IF(_acsRepor_day_shift!L4="","",_acsRepor_day_shift!L4)</f>
+        <f>IF(_acsReport_day_shift!L4="","",_acsReport_day_shift!L4)</f>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f>IF(_acsRepor_day_shift!M4="","",_acsRepor_day_shift!M4)</f>
+        <f>IF(_acsReport_day_shift!M4="","",_acsReport_day_shift!M4)</f>
         <v/>
       </c>
       <c r="P7" t="str">
-        <f>IF(_acsRepor_day_shift!N4="","",_acsRepor_day_shift!N4)</f>
+        <f>IF(_acsReport_day_shift!N4="","",_acsReport_day_shift!N4)</f>
         <v/>
       </c>
       <c r="Q7" t="str">
-        <f>IF(_acsRepor_day_shift!O4="","",_acsRepor_day_shift!O4)</f>
+        <f>IF(_acsReport_day_shift!O4="","",_acsReport_day_shift!O4)</f>
         <v/>
       </c>
       <c r="R7" t="str">
-        <f>IF(_acsRepor_day_shift!P4="","",_acsRepor_day_shift!P4)</f>
+        <f>IF(_acsReport_day_shift!P4="","",_acsReport_day_shift!P4)</f>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f>IF(_acsRepor_day_shift!Q4="","",_acsRepor_day_shift!Q4)</f>
+        <f>IF(_acsReport_day_shift!Q4="","",_acsReport_day_shift!Q4)</f>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f>IF(_acsRepor_day_shift!R4="","",_acsRepor_day_shift!R4)</f>
+        <f>IF(_acsReport_day_shift!R4="","",_acsReport_day_shift!R4)</f>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f>IF(_acsRepor_day_shift!S4="","",_acsRepor_day_shift!S4)</f>
+        <f>IF(_acsReport_day_shift!S4="","",_acsReport_day_shift!S4)</f>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f>IF(_acsRepor_day_shift!T4="","",_acsRepor_day_shift!T4)</f>
+        <f>IF(_acsReport_day_shift!T4="","",_acsReport_day_shift!T4)</f>
         <v/>
       </c>
       <c r="W7" t="str">
-        <f>IF(_acsRepor_day_shift!U4="","",_acsRepor_day_shift!U4)</f>
+        <f>IF(_acsReport_day_shift!U4="","",_acsReport_day_shift!U4)</f>
         <v/>
       </c>
       <c r="X7" t="str">
-        <f>IF(_acsRepor_day_shift!V4="","",_acsRepor_day_shift!V4)</f>
+        <f>IF(_acsReport_day_shift!V4="","",_acsReport_day_shift!V4)</f>
         <v/>
       </c>
     </row>
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
